--- a/CoreRulebook/Data/Spells/spellDamage.xlsx
+++ b/CoreRulebook/Data/Spells/spellDamage.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2D34FD-8E33-4B03-BBC6-C90547BAB604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330FA92-23F0-4E30-A3B4-B52FA1F4E406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BD078FB-32DD-4E69-BBB5-CE5BAF67BDF1}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{9BD078FB-32DD-4E69-BBB5-CE5BAF67BDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,21 +114,21 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +447,7 @@
   <dimension ref="B3:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,107 +457,107 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="K4" s="6" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -681,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>6</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>8</v>
@@ -894,72 +894,72 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="K21" s="5" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="K21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="4" t="s">
+      <c r="G22" s="4"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K23">
@@ -1065,11 +1065,11 @@
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="R25">
         <f t="shared" ref="R25:R28" si="8">L25/L24</f>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L35">
-        <f t="shared" ref="L35:L40" si="9">M24/L24</f>
+        <f t="shared" ref="L35:L39" si="9">M24/L24</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="N35">
@@ -1387,12 +1387,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:M21"/>
@@ -1400,11 +1399,12 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/CoreRulebook/Data/Spells/spellDamage.xlsx
+++ b/CoreRulebook/Data/Spells/spellDamage.xlsx
@@ -104,6 +104,7 @@
       <color rgb="FF000000"/>
       <name val="aakar"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +202,7 @@
   <dimension ref="B3:U34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
+      <selection pane="topLeft" activeCell="X30" activeCellId="0" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,25 +603,25 @@
         <v>6</v>
       </c>
       <c r="L13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>6</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>8</v>
@@ -1003,19 +1004,19 @@
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">L13*(M13+1)/2</f>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M29" s="0" t="n">
         <f aca="false">N13*(O13+1)/2</f>
-        <v>82.5</v>
+        <v>65</v>
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">P13*(Q13+1)/2</f>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O29" s="0" t="n">
         <f aca="false">R13*(S13+1)/2</f>
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
